--- a/biology/Biochimie/Ubiquinone/Ubiquinone.xlsx
+++ b/biology/Biochimie/Ubiquinone/Ubiquinone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ubiquinone est une molécule appartenant à une famille de composés qui se distinguent par leur nombre n d'unités terpéniques — n typiquement compris entre 6 et 10 — présents chez tous les êtres vivants et jouant le rôle de transporteurs d'électrons dans la chaîne respiratoire. En effet, elle reçoit des électrons du NADH à travers la NADH déshydrogénase et les cède au succinate pour donner du fumarate sous l'action de la succinate déshydrogénase. Elle peut également recevoir des électrons de la flavoprotéine de transfert d'électrons (ETF) par l'intermédiaire de l'ETF déshydrogénase et ceux provenant du NADH cytosolique par l'intermédiaire de la navette du glycérol-3-phosphate pour les céder à la coenzyme Q-cytochrome c réductase.
 L'ubiquinone est présente notamment sur la membrane mitochondriale interne mais n'est pas ancrée à elle de façon très solide et diffuse facilement car elle est liposoluble.
